--- a/params.xlsx
+++ b/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\NTNU\masteroppgave\Borehole-analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9B46F6-B41E-4F39-A415-4C0F9CE7FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2A2F93-EE71-42DB-BD64-E6738E9C365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{73315B9C-4F2E-4A0E-86F5-DB77547B2A8D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -521,7 +522,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
